--- a/04_memo/map09.xlsx
+++ b/04_memo/map09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056BC02-4D55-42D4-83C6-5A075EE615D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46691599-11C4-477C-BD87-B9BC50D01F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +213,6 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -656,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +712,714 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="273">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -2477,7 +3173,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2608,21 +3304,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="3">
@@ -2647,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
@@ -2671,46 +3367,46 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -2718,8 +3414,8 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
+      <c r="Q6" s="3">
+        <v>11</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -2728,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="T6" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2751,8 +3447,8 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2760,8 +3456,8 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
+      <c r="G7" s="1">
+        <v>11</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -2790,8 +3486,8 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1">
-        <v>0</v>
+      <c r="Q7" s="3">
+        <v>11</v>
       </c>
       <c r="R7" s="4">
         <v>1</v>
@@ -2800,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -2823,8 +3519,8 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2832,8 +3528,8 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
+      <c r="G8" s="1">
+        <v>11</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -2862,8 +3558,8 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>11</v>
       </c>
       <c r="R8" s="4">
         <v>1</v>
@@ -2872,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -2895,17 +3591,17 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
+      <c r="D9" s="1">
+        <v>11</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -2920,31 +3616,31 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>11</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
+      <c r="T9" s="3">
+        <v>11</v>
       </c>
       <c r="U9" s="4">
         <v>0</v>
@@ -2967,8 +3663,8 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2976,8 +3672,8 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
-        <v>7</v>
+      <c r="G10" s="1">
+        <v>11</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -3006,8 +3702,8 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
+      <c r="Q10" s="3">
+        <v>11</v>
       </c>
       <c r="R10" s="4">
         <v>1</v>
@@ -3016,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
@@ -3039,8 +3735,8 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>10</v>
+      <c r="D11" s="1">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3048,8 +3744,8 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>2</v>
+      <c r="G11" s="1">
+        <v>11</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -3078,8 +3774,8 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
-        <v>2</v>
+      <c r="Q11" s="3">
+        <v>11</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
@@ -3088,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
@@ -3111,8 +3807,8 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="1">
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -3120,8 +3816,8 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
+      <c r="G12" s="1">
+        <v>11</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -3150,8 +3846,8 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="1">
-        <v>7</v>
+      <c r="Q12" s="3">
+        <v>11</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
@@ -3160,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -3184,16 +3880,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -3208,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3222,17 +3918,17 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
+      <c r="Q13" s="3">
+        <v>11</v>
       </c>
       <c r="R13" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>11</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
@@ -3255,8 +3951,8 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3264,8 +3960,8 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
+      <c r="G14" s="1">
+        <v>11</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -3294,8 +3990,8 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="1">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>11</v>
       </c>
       <c r="R14" s="4">
         <v>1</v>
@@ -3304,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -3327,8 +4023,8 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="1">
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -3336,8 +4032,8 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
+      <c r="G15" s="1">
+        <v>11</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3366,8 +4062,8 @@
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>11</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -3376,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
@@ -3397,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -3409,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -3438,8 +4134,8 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
+      <c r="Q16" s="3">
+        <v>11</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -3448,16 +4144,16 @@
         <v>1</v>
       </c>
       <c r="T16" s="3">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1">
+        <v>8</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
         <v>2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
@@ -3472,16 +4168,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3490,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -3502,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -3511,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
+        <v>11</v>
+      </c>
+      <c r="S17" s="3">
+        <v>11</v>
+      </c>
+      <c r="T17" s="3">
+        <v>11</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -3616,212 +4312,458 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M4:N4 M6:N8 A18:K18 A17:E17 R6:T8 Q4:T5 A12:K16 R10:T10 M10:N10 M9">
-    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
+  <conditionalFormatting sqref="M4:N4 M6:N8 A18:K18 A17:D17 R6:S8 A12:C16 R10:S10 M10:N10 M9 E12:F16 H12:K16 Q4:T5 Q5:Q16">
+    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A11:K11 A6:L8 A5:F5 A10:L10 K9:L9">
-    <cfRule type="cellIs" dxfId="168" priority="170" operator="equal">
+  <conditionalFormatting sqref="A4:L4 A6:C8 A5:D5 A10:C11 K9:L9 E6:F8 E10:F11 H11:K11 H6:L8 H10:L10">
+    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:N16 L18:N18 S17:T17 R11:T16 Q18:T18 O13:W13">
-    <cfRule type="cellIs" dxfId="12" priority="157" operator="equal">
+  <conditionalFormatting sqref="L11:N16 L18:N18 Q18:T18 O13:S13 R11:S16 U13:W13">
+    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:N5">
-    <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
+  <conditionalFormatting sqref="J5:N5">
+    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:N17 R17">
-    <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
+  <conditionalFormatting sqref="H17:N17">
+    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q8 Q10:Q17">
+    <cfRule type="cellIs" dxfId="207" priority="183" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="184" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="185" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="186" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="187" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="188" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="193" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P16 O18:P18">
+    <cfRule type="cellIs" dxfId="194" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4 O6:P8 O10:P11">
+    <cfRule type="cellIs" dxfId="181" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="cellIs" dxfId="168" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P17">
+    <cfRule type="cellIs" dxfId="155" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:W18">
+    <cfRule type="cellIs" dxfId="142" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="121" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="122" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="126" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:W8 U10:W11">
     <cfRule type="cellIs" dxfId="129" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3862,7 +4804,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:P16 O18:P18">
+  <conditionalFormatting sqref="N9:S9 U9:W9">
     <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3903,7 +4845,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:P4 O6:P8 O10:P11">
+  <conditionalFormatting sqref="A9:C9 E9:F9 H9:J9">
     <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3944,249 +4886,249 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:P5">
-    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
+  <conditionalFormatting sqref="E5:F5 H5:I5">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:P17">
-    <cfRule type="cellIs" dxfId="77" priority="53" operator="equal">
+  <conditionalFormatting sqref="D6:D16">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:W18">
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+  <conditionalFormatting sqref="G5:G17">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:W8 U10:W11">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:W9">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+  <conditionalFormatting sqref="T6:T16">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:J9">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="R17:T17">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map09.xlsx
+++ b/04_memo/map09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF3EEB-48BA-415E-96C1-F13A78FC7789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F05E60D-B768-4D00-BC83-0BCAE6AAB9F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -10240,7 +10240,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="1"/>
     </row>
